--- a/biology/Botanique/Asterophora/Asterophora.xlsx
+++ b/biology/Botanique/Asterophora/Asterophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asterophora est un genre de champignons mycoparasites. Le genre comprend quatre espèces ayant une distribution holarctique, principalement dans les zones tempérées.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces d'Asterophora sont des petits champignons blanchâtres aux lamelles épaisses et courtes, poussant en troupe sur des Russules en décomposition, particulièrement les espèces apparentées à Russula nigricans et Russula delica. Ils sont caractérisés par le peu de production de spores et par la production massive de chlamydospore et de lysosomes carminophiles dans leurs basides. Les chlamydospore, souvent liées en chaîne, sont visibles avec une bonne loupe sur les lamelles et la surface du chapeau[1],[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces d'Asterophora sont des petits champignons blanchâtres aux lamelles épaisses et courtes, poussant en troupe sur des Russules en décomposition, particulièrement les espèces apparentées à Russula nigricans et Russula delica. Ils sont caractérisés par le peu de production de spores et par la production massive de chlamydospore et de lysosomes carminophiles dans leurs basides. Les chlamydospore, souvent liées en chaîne, sont visibles avec une bonne loupe sur les lamelles et la surface du chapeau,. 
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Nyctalis, créé par Fries en 1822 est également utilisé durant le XXe siècle pour désigner ces espèces. Ce n'est qu'après les travaux de Redhead &amp; Seifert de 2001 que la synonymie se clarifie[3]. 
-Asterophora est la forme sexuée (téléomorphe) de ces espèces. La forme asexuée (anamorphe) est classée dans le genre Ugola. Trois espèces sont décrites : U. baryana, forme anamorphe d'A. parasitica ; U. physaroides, forme anamorphe d'A. lycoperdoides ; et U. praticola[3],[4].
-L'espèce A. salvaterrensis est décrite en 2001 depuis les pinèdes de Pin maritime en Galice (Nord-Ouest de la péninsule ibérique)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Nyctalis, créé par Fries en 1822 est également utilisé durant le XXe siècle pour désigner ces espèces. Ce n'est qu'après les travaux de Redhead &amp; Seifert de 2001 que la synonymie se clarifie. 
+Asterophora est la forme sexuée (téléomorphe) de ces espèces. La forme asexuée (anamorphe) est classée dans le genre Ugola. Trois espèces sont décrites : U. baryana, forme anamorphe d'A. parasitica ; U. physaroides, forme anamorphe d'A. lycoperdoides ; et U. praticola,.
+L'espèce A. salvaterrensis est décrite en 2001 depuis les pinèdes de Pin maritime en Galice (Nord-Ouest de la péninsule ibérique).
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum :
 Asterophora lycoperdoides (Bull.) Ditmar
 Asterophora mirabilis (T.W.May) Redhead &amp; Seifert
 Asterophora parasitica (Bull. ex Pers.) Singer
